--- a/BalanceSheet/APD_bal.xlsx
+++ b/BalanceSheet/APD_bal.xlsx
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-9900000.0</v>
+        <v>423000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>20100000.0</v>
+        <v>405000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-8800000.0</v>
+        <v>411000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-8100000.0</v>
+        <v>400000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-8400000.0</v>
+        <v>401000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>388300000.0</v>
@@ -1870,19 +1870,19 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>24200000.0</v>
+        <v>1461000000.0</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>152800000.0</v>
+        <v>546000000.0</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>-72900000.0</v>
+        <v>1232000000.0</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>3600000.0</v>
+        <v>1237000000.0</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>-115400000.0</v>
+        <v>1227000000.0</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>1635700000.0</v>
@@ -2874,19 +2874,19 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>47600000.0</v>
+        <v>1003000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>5000000.0</v>
+        <v>848000000.0</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>105000000.0</v>
+        <v>942000000.0</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>30600000.0</v>
+        <v>844000000.0</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>24400000.0</v>
+        <v>811000000.0</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>793800000.0</v>
